--- a/results/sametissue/Prostate.xlsx
+++ b/results/sametissue/Prostate.xlsx
@@ -381,19 +381,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -1612,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2829,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
